--- a/_downloads/147cad797826851f0c90b5c39e750c46/Habitat-BOM.xlsx
+++ b/_downloads/147cad797826851f0c90b5c39e750c46/Habitat-BOM.xlsx
@@ -5,15 +5,15 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/412ba1c02c359b1c/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcalc\UCL Dropbox\Lorenza Calcaterra\Project_aeon\Assembly instructions\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{335BCE05-802C-46D0-B2B4-404FDD80F0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E52FD91F-AF2D-4ED2-BCC9-B47614CAA3F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE003DC-735C-42B1-BC16-795E531681F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38A5E6C9-8D94-40D2-9BFA-B29F5FB44878}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arena" sheetId="1" r:id="rId1"/>
+    <sheet name="AEON habitat" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,266 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Lorenza Calcaterra</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D6B7B53A-74D1-435A-80A1-9DCB5D789D63}">
-      <text/>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{EC32D849-4182-4312-9923-6D1403DD3579}">
-      <text/>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{9E89FBD3-8EFA-4C5C-9AFB-E97485ABACDC}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{578D3F03-C970-4E7D-8407-C2284F8A3500}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{C64D5A25-5FBF-4353-8F22-AB61C627F2DA}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{3A3E2EF0-C114-464F-A99D-CFAB4F1D0330}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{BCC011F0-9CF0-4B13-906D-3D2D5B7AB2E8}">
-      <text/>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{CCFD13C3-3092-4623-A14D-65E2E35B1C79}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{1EE22D7F-6E84-4369-BC9F-81164719A0B7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{CB08F092-D310-4378-A647-0F81CFAA0F24}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C65A1881-4606-4346-AD4D-282416161A21}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{21BD45D6-E3BA-46B2-AF82-72489E35CFB9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{05877866-6893-470B-9CCA-2F0F7FFB4208}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{7EFF2C08-ED02-424A-86F4-E9A99A15C4B4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{7A7E86DE-D53D-4E6A-945F-C69DEDDBA4F1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{F6B43DA7-7C8C-4868-A0F6-97718AA03A0B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{A4F52101-5C15-4138-A887-F61371FB1248}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{10F80E2B-B138-44BC-ABB9-B7E62D30865E}">
-      <text/>
-    </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{72B0F047-1F73-4190-A114-3F8118C16FE9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{5A79D49E-C60A-404E-8AF8-5BA280B9687A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{E68CD7CB-D727-4E13-A85D-03C6EF20B9EB}">
-      <text/>
-    </comment>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{83E84A96-E8B4-4CA7-8446-EBB154C4ABC9}">
-      <text/>
-    </comment>
-    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{C07521A0-F8E9-4A8C-884D-637F85884583}">
-      <text/>
-    </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{DC31243F-2043-416A-9FDC-7CA25FA64BD7}">
-      <text/>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="108">
   <si>
     <t xml:space="preserve">Inventory list </t>
   </si>
@@ -368,9 +110,6 @@
     <t>Wall</t>
   </si>
   <si>
-    <t>Feeder Hex</t>
-  </si>
-  <si>
     <t xml:space="preserve">Honeycomb </t>
   </si>
   <si>
@@ -378,12 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Metal </t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Ohaus</t>
   </si>
   <si>
     <t>Lenses</t>
@@ -595,6 +328,39 @@
   <si>
     <t xml:space="preserve">
 738-2387</t>
+  </si>
+  <si>
+    <t>ALUMINUM AW6082-T6 2mm 450x400</t>
+  </si>
+  <si>
+    <t>3D printer</t>
+  </si>
+  <si>
+    <t>3D printed material</t>
+  </si>
+  <si>
+    <t>Vero Clear + Vero Black plus +Tango Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall jont </t>
+  </si>
+  <si>
+    <t>Countersunk screw M6 12mm</t>
+  </si>
+  <si>
+    <t>232-8451</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Countersunk screw</t>
+  </si>
+  <si>
+    <t>bag of 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 screws and 4 insertion nuts included </t>
   </si>
 </sst>
 </file>
@@ -604,7 +370,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,12 +434,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -702,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,9 +483,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -750,7 +507,257 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -783,146 +790,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -936,9 +803,146 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2967318</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>153852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08644C2D-3D83-3832-056C-4B45A7FD1AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9628093"/>
+          <a:ext cx="6589059" cy="4618277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3374061</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3D5857-27C3-6E7C-A003-70EA8A98ABC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322729" y="14137340"/>
+          <a:ext cx="6673073" cy="4634753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2981470</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D52F361-77DA-6FF7-EADC-98BC825943F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="116541" y="19041035"/>
+          <a:ext cx="6486670" cy="4401670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13B3694B-3A36-45DF-BF5F-9F26AAA63BF0}" name="Table2" displayName="Table2" ref="A3:J49" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A3:J49" xr:uid="{13B3694B-3A36-45DF-BF5F-9F26AAA63BF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13B3694B-3A36-45DF-BF5F-9F26AAA63BF0}" name="Table2" displayName="Table2" ref="A3:J47" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A3:J47" xr:uid="{13B3694B-3A36-45DF-BF5F-9F26AAA63BF0}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B4854CC6-A69E-4572-8A26-1806417E87F0}" name="Item name "/>
     <tableColumn id="2" xr3:uid="{91B478DC-1F55-4A4F-A4F2-20A3405AFFF0}" name="Item category"/>
@@ -946,8 +950,8 @@
     <tableColumn id="4" xr3:uid="{7D2095D8-7620-4899-8687-050E610BE7DF}" name="Description"/>
     <tableColumn id="5" xr3:uid="{F9570E16-0713-4961-B3C1-47CACC1A0467}" name="Supplier"/>
     <tableColumn id="6" xr3:uid="{0185D33D-A6C7-4940-A199-F8F5DC0199F8}" name="Quantity "/>
-    <tableColumn id="7" xr3:uid="{C21C8143-3C50-4801-A363-425817E6C503}" name="Unit price" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{F04832B8-365F-44B9-95D9-5C6F85186917}" name="Total price" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{C21C8143-3C50-4801-A363-425817E6C503}" name="Unit price" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{F04832B8-365F-44B9-95D9-5C6F85186917}" name="Total price" dataDxfId="25">
       <calculatedColumnFormula>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{A7DAB8C0-5901-40BC-909B-A19B354C0654}" name="Link"/>
@@ -1253,39 +1257,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20442AE5-CF60-48D9-8E45-32FAF571F881}">
-  <dimension ref="A1:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20442AE5-CF60-48D9-8E45-32FAF571F881}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.21875" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
     <col min="4" max="4" width="27.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2">
-        <f>SUM(H4:H49)</f>
-        <v>17889.719999999998</v>
+        <f>SUM(H4:H47)</f>
+        <v>17572.999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1340,11 +1344,11 @@
         <v>25</v>
       </c>
       <c r="G4" s="2">
-        <v>110.48</v>
+        <v>112.83</v>
       </c>
       <c r="H4" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>2762</v>
+        <v>2820.75</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>12</v>
@@ -1382,124 +1386,133 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
+      <c r="C6" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F6">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>7.72</v>
+        <v>14.31</v>
       </c>
       <c r="H6" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>1158</v>
+        <v>42.93</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="J6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="G7" s="2">
-        <v>26</v>
+        <v>7.72</v>
       </c>
       <c r="H7" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>962</v>
+        <v>1158</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
-        <v>16</v>
+        <v>16.48</v>
       </c>
       <c r="H8" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>576</v>
+        <v>659.2</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
-        <v>70</v>
+        <v>17.66</v>
       </c>
       <c r="H9" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>70</v>
+        <v>706.4</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1515,21 +1528,24 @@
         <v>456</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
+      <c r="C11" t="s">
+        <v>97</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1542,678 +1558,675 @@
         <v>39.880000000000003</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="10">
-        <v>30456389</v>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="H12" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>176</v>
+        <v>450</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2">
-        <v>90</v>
+        <v>386.75</v>
       </c>
       <c r="H13" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>450</v>
+        <v>1547</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2">
-        <v>386.75</v>
+        <v>297</v>
       </c>
       <c r="H14" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>1547</v>
+        <v>2673</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
       <c r="F15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
-        <v>297</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="H15" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>2673</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>33.369999999999997</v>
+        <v>212.7</v>
       </c>
       <c r="H16" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>66.739999999999995</v>
+        <v>212.7</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
       <c r="C17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>212.7</v>
+        <v>107.99</v>
       </c>
       <c r="H17" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>212.7</v>
+        <v>107.99</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>72</v>
+      </c>
+      <c r="H18" s="2">
+        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
+        <v>576</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2">
+        <v>47.1</v>
+      </c>
+      <c r="H19" s="2">
+        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
+        <v>282.60000000000002</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>107.99</v>
-      </c>
-      <c r="H18" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>107.99</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C20" s="14">
+        <v>100.71299999999999</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2">
-        <v>72</v>
-      </c>
-      <c r="H19" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>576</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G20" s="2">
-        <v>47.1</v>
+        <v>45.13</v>
       </c>
       <c r="H20" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>282.60000000000002</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>55</v>
+        <v>541.56000000000006</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="15">
-        <v>100.71299999999999</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G21" s="2">
-        <v>45.13</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>541.56000000000006</v>
+        <v>270</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F22">
         <v>9</v>
       </c>
       <c r="G22" s="2">
-        <v>30</v>
+        <v>35.1</v>
       </c>
       <c r="H22" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>270</v>
+        <v>315.90000000000003</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F23">
         <v>9</v>
       </c>
       <c r="G23" s="2">
-        <v>35.1</v>
+        <v>19.7</v>
       </c>
       <c r="H23" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>315.90000000000003</v>
+        <v>177.29999999999998</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
       </c>
       <c r="F24">
         <v>9</v>
       </c>
       <c r="G24" s="2">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H24" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>177.29999999999998</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>58</v>
+      <c r="A25" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="14">
+        <v>238823</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>225</v>
+      </c>
+      <c r="H25" s="2">
+        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
+        <v>225</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="F25">
-        <v>9</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="H25" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="15">
-        <v>238823</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>66</v>
+      <c r="D26" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="2">
-        <v>225</v>
+        <v>9.4</v>
       </c>
       <c r="H26" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>225</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>66</v>
+        <v>37.6</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>69</v>
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2">
-        <v>9.4</v>
+        <v>81.2</v>
       </c>
       <c r="H27" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>37.6</v>
+        <v>730.80000000000007</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="H28" s="2">
+        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
+        <v>69.180000000000007</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28">
-        <v>9</v>
-      </c>
-      <c r="G28" s="2">
-        <v>81.2</v>
-      </c>
-      <c r="H28" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>730.80000000000007</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>98.42</v>
+      </c>
+      <c r="H29" s="2">
+        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
+        <v>196.84</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>69.180000000000007</v>
-      </c>
-      <c r="H29" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>69.180000000000007</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>14.92</v>
+      </c>
+      <c r="H30" s="2">
+        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
+        <v>44.76</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30">
+      <c r="D31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
-      <c r="G30" s="2">
-        <v>98.42</v>
-      </c>
-      <c r="H30" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>196.84</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
       <c r="G31" s="2">
-        <v>14.92</v>
+        <v>19.89</v>
       </c>
       <c r="H31" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>44.76</v>
-      </c>
-      <c r="I31" s="14" t="s">
+        <v>39.78</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>19.89</v>
+        <v>32</v>
       </c>
       <c r="H32" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>39.78</v>
+        <v>32</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="2">
-        <v>32</v>
+        <v>227.51</v>
       </c>
       <c r="H33" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>32</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>682.53</v>
+      </c>
+      <c r="I33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>83</v>
       </c>
       <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2222,79 +2235,79 @@
         <v>3</v>
       </c>
       <c r="G34" s="2">
-        <v>227.51</v>
+        <v>67.56</v>
       </c>
       <c r="H34" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>682.53</v>
+        <v>202.68</v>
       </c>
       <c r="I34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
         <v>86</v>
       </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2">
+        <v>179.57</v>
+      </c>
+      <c r="H35" s="2">
+        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
+        <v>1077.42</v>
+      </c>
+      <c r="I35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>87</v>
       </c>
-      <c r="D35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" s="2">
-        <v>67.56</v>
-      </c>
-      <c r="H35" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>202.68</v>
-      </c>
-      <c r="I35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
         <v>88</v>
       </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>179.57</v>
+        <v>423.64</v>
       </c>
       <c r="H36" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>1077.42</v>
+        <v>423.64</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
         <v>90</v>
@@ -2303,223 +2316,250 @@
         <v>1</v>
       </c>
       <c r="G37" s="2">
-        <v>423.64</v>
+        <v>291.14</v>
       </c>
       <c r="H37" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>423.64</v>
+        <v>291.14</v>
       </c>
       <c r="I37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
         <v>93</v>
       </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>291.14</v>
+        <v>280.68</v>
       </c>
       <c r="H38" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>291.14</v>
+        <v>280.68</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>280.68</v>
+        <v>20.48</v>
       </c>
       <c r="H39" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>280.68</v>
+        <v>20.48</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>20.48</v>
+        <v>101</v>
       </c>
       <c r="H40" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>20.48</v>
-      </c>
-      <c r="I40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
       <c r="H41" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H42" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H43" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H44" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H45" s="2">
         <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H46" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H47" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H48" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H49" s="2">
-        <f>Table2[[#This Row],[Quantity ]]*Table2[[#This Row],[Unit price]]</f>
-        <v>0</v>
-      </c>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G46"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F4:I5 F6:H6 A4:B6 D4:D6 A7:H11 D12:H13 A14:H14 A12:B13 A15:B18 B19 D15:H18 F19:H19 D20:I20 D21 F21:I21 A20:B22 D22:I22 E23:E24 B23:B27">
-    <cfRule type="expression" dxfId="16" priority="16">
+  <conditionalFormatting sqref="F4:I5 D4:D5 A13:H13 A14:B17 B18 D14:H17 F18:H18 D19:I19 D20 F20:I20 A19:B21 D21:I21 E22:E23 B22:B26 A4:B5 D12:H12 A12:B12 B6 F6:H7 A7:B7 D7 A8:H11">
+    <cfRule type="expression" dxfId="24" priority="29">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="expression" dxfId="22" priority="26">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="21" priority="25">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="20" priority="24">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B32">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:I41">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A41">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:B41">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>#REF!="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:E6">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>#REF!="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="15" priority="14">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I9">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="13" priority="12">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="10" priority="9">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="9" priority="8">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>#REF!="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B33">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2528,68 +2568,69 @@
     <hyperlink ref="D4" location="Sheet1!A1" tooltip="Silver Aluminium Profile Strut, 30 x 60 mm, 8mm Groove, 3000mm Length" display="Aluminum extrusion " xr:uid="{C32BCDAD-F70F-41D5-9EA1-A7102E366327}"/>
     <hyperlink ref="D5" location="Sheet1!A1" tooltip="M8 Thread Galvanised Steel Adjustable Foot, 10mm Groove" display="Adjustable foot " xr:uid="{7CE3C0A3-4823-42C1-8A18-885F00B80021}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{9181FABC-D09B-4AEA-901D-A691861D1A7D}"/>
-    <hyperlink ref="I6" r:id="rId3" xr:uid="{76164332-D8A5-41D5-BED0-4B81ADBA901F}"/>
-    <hyperlink ref="D6" location="Sheet1!A1" tooltip="M6 Angle Bracket Connecting Component, Strut Profile 30 mm, Groove Size 8mm" display="Angle bracket" xr:uid="{8C1A59BD-26CB-4EB7-9A2D-1CF9AA0D6D27}"/>
-    <hyperlink ref="I7" r:id="rId4" xr:uid="{55538876-E374-47D1-BF75-9FEA440B2959}"/>
-    <hyperlink ref="I8" r:id="rId5" xr:uid="{B129718F-B12A-4C79-83CB-63C0A2ADED59}"/>
-    <hyperlink ref="I9" r:id="rId6" xr:uid="{8748535D-B1C9-429A-926C-166311946040}"/>
-    <hyperlink ref="D7" location="Sheet1!A1" tooltip="Matte white acrylic 450mm x 400mm x 5mm " display="Hex tile" xr:uid="{4D4B67B1-1EBD-44DA-A82E-316078443495}"/>
-    <hyperlink ref="D9" location="Sheet1!A1" tooltip="Matte white acrylic 1270mm x 4700mm x 3mm " display="Feeder Hex" xr:uid="{F8023174-E75C-46E9-BBB4-7119CE3540D2}"/>
-    <hyperlink ref="D8" location="Sheet1!A1" tooltip="Red Tint acrylic 500mm x 400mm x 5mm " display="Wall" xr:uid="{A3C99E44-9082-4907-9A05-82BFFD067988}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{76164332-D8A5-41D5-BED0-4B81ADBA901F}"/>
+    <hyperlink ref="D7" location="Sheet1!A1" tooltip="M6 Angle Bracket Connecting Component, Strut Profile 30 mm, Groove Size 8mm" display="Angle bracket" xr:uid="{8C1A59BD-26CB-4EB7-9A2D-1CF9AA0D6D27}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{55538876-E374-47D1-BF75-9FEA440B2959}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{B129718F-B12A-4C79-83CB-63C0A2ADED59}"/>
+    <hyperlink ref="D8" location="Sheet1!A1" tooltip="Matte white acrylic 450mm x 400mm x 5mm " display="Hex tile" xr:uid="{4D4B67B1-1EBD-44DA-A82E-316078443495}"/>
+    <hyperlink ref="D9" location="Sheet1!A1" tooltip="Red Tint acrylic 500mm x 400mm x 5mm " display="Wall" xr:uid="{A3C99E44-9082-4907-9A05-82BFFD067988}"/>
     <hyperlink ref="D10" location="Sheet1!A1" tooltip="Matte white acrylic 1270mm x 700mm x 5mm" display="Honeycomb " xr:uid="{C17513E2-DACA-465D-8615-93A40D00C037}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{0E654650-289D-4577-89E1-32D64A8A3A88}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{0E654650-289D-4577-89E1-32D64A8A3A88}"/>
     <hyperlink ref="D11" location="Sheet1!A1" tooltip="1000mm x 1000mm x 2mm" display="Metal hex" xr:uid="{A3CA123B-2926-4C5E-A5AD-27D48BE60D48}"/>
-    <hyperlink ref="D12" location="Sheet1!A1" tooltip="Ohaus Navigator Model NVT2201 2200g x 0.1g Portable Balance" display="Scale" xr:uid="{CBBC2BA5-1A31-458C-9170-1221D8008BCA}"/>
-    <hyperlink ref="I12" r:id="rId8" xr:uid="{60AC8B77-9F34-40AE-AB3C-5172F259963D}"/>
-    <hyperlink ref="D13" location="Sheet1!A1" tooltip="Computar A4Z2812CS-MPIR, 2.8mm-10mm, 1/2.7&quot;, CS mount Lens" display="Lenses" xr:uid="{A4D8D9D4-6597-4460-8B01-82E72C9C5084}"/>
-    <hyperlink ref="I13" r:id="rId9" xr:uid="{63A822F2-F695-4A74-9F4B-B98DAE4DD759}"/>
-    <hyperlink ref="I14" r:id="rId10" xr:uid="{774B8745-57C6-46C8-B545-B612E92BA1DD}"/>
-    <hyperlink ref="D14" location="Sheet1!A1" tooltip="High resolution varifical length f=1.9/9-90 mm - C mount" display="Lenses" xr:uid="{65D6FB26-17B8-4D27-964C-8D7EE2AC3E61}"/>
-    <hyperlink ref="D16" location="Sheet1!A1" tooltip="Wago 221 Series Lever Connector Set, 2, 3, 5-Way, 32 A, 24 → 12 AWG Wire, Cage Clamp Termination" display="Wago clamps" xr:uid="{5075DB01-F560-4042-9FD1-CD424E281E68}"/>
-    <hyperlink ref="D15" location="Sheet1!A1" tooltip="Blackfly S USB3, Model: BFS-U3-16S2M-CS: 1.6 MP, 226 FPS, Sony IMX273, Mono" display="Cameras" xr:uid="{CC6EC83C-1F17-4D34-AA93-8105ADE1523D}"/>
-    <hyperlink ref="I15" r:id="rId11" xr:uid="{17546202-A502-41C6-B5F6-A8C67ACE039B}"/>
-    <hyperlink ref="I16" r:id="rId12" xr:uid="{BF32C4DA-88AA-4D56-9998-9138E0323A75}"/>
-    <hyperlink ref="D17" location="Sheet1!A1" tooltip="10 Port USB 3.0 USB A Hub, Terminal Connector Powered, 198 x 56 x 31mm" display="USB Hub" xr:uid="{3E38E64E-AF36-49C6-9C1B-393D1F44DF92}"/>
-    <hyperlink ref="I17" r:id="rId13" xr:uid="{BEC4C95D-5E8C-4A14-95E7-E7F57CED3303}"/>
-    <hyperlink ref="D18" location="Sheet1!A1" tooltip="RM Series™ RM850 — 850 Watt 80 PLUS® Gold Certified Fully Modular PSU (UK)" display="Modular PSU" xr:uid="{D925E3AE-B9FF-4EE1-A15D-6916EAE0CBAA}"/>
-    <hyperlink ref="I18" r:id="rId14" xr:uid="{58E1E7C3-FEB2-4A8D-B8AB-3C1463280E74}"/>
-    <hyperlink ref="D19" location="Sheet1!A1" tooltip="InfraRed 850nm | 940nm IR LED Light Strip, Double Row 240LEDs 19.2W Per Meter" display="IR LED Strips" xr:uid="{1148CDC9-7772-46EF-B3BA-438A437BD3C6}"/>
-    <hyperlink ref="I19" r:id="rId15" xr:uid="{59E8DB28-1403-4F93-BFFF-C30D225D033B}"/>
-    <hyperlink ref="D20" location="Sheet1!A1" tooltip="12V Output, 150W Output, 12.5A Output, Constant Voltage Dimmable" display="LED driver" xr:uid="{982FB581-FBC4-40DC-A622-232C1998A35F}"/>
-    <hyperlink ref="D21" location="Sheet1!A1" tooltip="Wide Box LED Profile 1m" display="LED profile" xr:uid="{EA8DFA94-1385-467B-B992-D100F3F37F00}"/>
-    <hyperlink ref="I21" r:id="rId16" xr:uid="{37C0CCD0-F695-4EA6-BEC4-B015F38C1052}"/>
-    <hyperlink ref="D22" location="Sheet1!A1" tooltip="Tripod Adapter for 39 mm Blackfly S Models" display="Tripod adapter" xr:uid="{D737E412-BA2A-4869-AA59-3DEDED58E411}"/>
-    <hyperlink ref="I22" r:id="rId17" xr:uid="{D57C0736-7E18-4611-81D3-86E7D19574B8}"/>
-    <hyperlink ref="D23" location="Sheet1!A1" tooltip="6 pins, 4.5m GPIO Cable, Hirose HR10 Circular Connector" display="GPIO cables" xr:uid="{4087A21A-85D3-462F-A5CE-F9FCE12500F7}"/>
-    <hyperlink ref="I23" r:id="rId18" xr:uid="{A1D8F568-5E4C-4437-98D0-34825DC07574}"/>
-    <hyperlink ref="D24" location="Sheet1!A1" tooltip=" USB 3.1, 3m, Type-A to Micro-B (Locking) Cable" display="USB locking cables" xr:uid="{56067C20-0058-437E-ACE1-92951B967934}"/>
-    <hyperlink ref="I24" r:id="rId19" xr:uid="{95CCC6EE-F14B-4129-A956-27E3C5E3FD7B}"/>
-    <hyperlink ref="D25" location="Sheet1!A1" tooltip="Adapter with External 1/4&quot;-20 Threads and External M6 x 1.0 Threads " display="Adapter" xr:uid="{1F8D9ECE-0F96-4B08-AE81-DFE02F76B372}"/>
-    <hyperlink ref="I25" r:id="rId20" display="Adapter" xr:uid="{D2EC5103-0A78-47C6-8D60-0268C2FB558C}"/>
-    <hyperlink ref="D26" location="Sheet1!A1" tooltip="Ultramic USB Ultrasound Microphone, 192kHz" display="Microphone" xr:uid="{1D4366F7-131F-42DB-8089-8381866CAE50}"/>
-    <hyperlink ref="I26" r:id="rId21" xr:uid="{41FBE172-DF7B-4303-95E1-C0B9A6F73FC3}"/>
-    <hyperlink ref="D27" location="Sheet1!A1" tooltip="CS to C Mount 5mm Spacer Adapter" display="C-mount adapter " xr:uid="{8397EB6E-559C-4F75-B7AF-B3364B091E70}"/>
-    <hyperlink ref="I27" r:id="rId22" xr:uid="{A55D519C-4478-4417-8043-F5931475B424}"/>
-    <hyperlink ref="D29" location="Sheet1!A1" tooltip="Acc Silicones AS1803 Thermal Adhesive, 310 ml" display="Thermal sealant" xr:uid="{D3140863-352F-4122-8654-3CA12FB9ECE1}"/>
-    <hyperlink ref="I29" r:id="rId23" xr:uid="{B767B0DC-9320-4958-A7F0-66320CBA20C4}"/>
-    <hyperlink ref="D31" location="Sheet1!A1" tooltip="Cable Bracket, 8mm GrooveSlot 40 mm, 45 mm, 50 mm, 60 mm, 80 mm, 90 mm, PA 27mm Internal Width 27mm" display="Cable Bracket" xr:uid="{2EF80D69-8457-47A4-8464-0D838938E88C}"/>
-    <hyperlink ref="I31" r:id="rId24" xr:uid="{5821677E-D7F0-4909-B545-3581EE88CA41}"/>
-    <hyperlink ref="D32" location="Sheet1!A1" tooltip="Ø12.7 mm Optical Post, SS, M4 Setscrew, M6 Tap, L = 50 mm, 5 Pack " display="Optical post" xr:uid="{8643A823-B273-4C72-A8FF-F6F759EBE54B}"/>
-    <hyperlink ref="I32" r:id="rId25" xr:uid="{8BE81AD2-7F67-4EC6-AAB0-07D20689B8DA}"/>
-    <hyperlink ref="D33" location="Sheet1!A1" tooltip="Ø12.7 mm Post Holder, Spring-Loaded Hex-Locking Thumbscrew, L=50 mm, 5 Pack" display="Post holder" xr:uid="{33326D07-3EEA-4BE6-9DC2-F302BB1A10F4}"/>
-    <hyperlink ref="I33" r:id="rId26" location="ad-image-0" xr:uid="{1CC549FB-EF17-4027-8119-7D7954F94A93}"/>
-    <hyperlink ref="D30" location="Sheet1!A1" tooltip="Rotating Clamp for Ø1/2&quot; Posts, 360° Continuously Adjustable, 5 mm Hex, 5 Pack " display="Rotating Clamp" xr:uid="{341E5250-0053-45AE-A387-432A8FDA30CE}"/>
-    <hyperlink ref="I30" r:id="rId27" xr:uid="{1DEC1AD4-9DC2-44AA-A09B-1C221286AB41}"/>
-    <hyperlink ref="D28" location="Sheet1!A1" tooltip="NIR Bandpass Filter – 850nm FWHM 100nm, 14 x 14 mm" display="IR Filter" xr:uid="{5571D44C-4AAA-4AC7-84FF-73B2C9FCC59F}"/>
-    <hyperlink ref="I28" r:id="rId28" xr:uid="{5B7A0DE2-A98E-45C9-818C-2A631B1C3874}"/>
-    <hyperlink ref="I11" r:id="rId29" xr:uid="{4A995C1B-6D4C-49DB-A180-E4557A591821}"/>
-    <hyperlink ref="I20" r:id="rId30" xr:uid="{997751E8-86E8-44C5-BD65-FDC48383E7D3}"/>
+    <hyperlink ref="D12" location="Sheet1!A1" tooltip="Computar A4Z2812CS-MPIR, 2.8mm-10mm, 1/2.7&quot;, CS mount Lens" display="Lenses" xr:uid="{A4D8D9D4-6597-4460-8B01-82E72C9C5084}"/>
+    <hyperlink ref="I12" r:id="rId7" xr:uid="{63A822F2-F695-4A74-9F4B-B98DAE4DD759}"/>
+    <hyperlink ref="I13" r:id="rId8" xr:uid="{774B8745-57C6-46C8-B545-B612E92BA1DD}"/>
+    <hyperlink ref="D13" location="Sheet1!A1" tooltip="High resolution varifical length f=1.9/9-90 mm - C mount" display="Lenses" xr:uid="{65D6FB26-17B8-4D27-964C-8D7EE2AC3E61}"/>
+    <hyperlink ref="D15" location="Sheet1!A1" tooltip="Wago 221 Series Lever Connector Set, 2, 3, 5-Way, 32 A, 24 → 12 AWG Wire, Cage Clamp Termination" display="Wago clamps" xr:uid="{5075DB01-F560-4042-9FD1-CD424E281E68}"/>
+    <hyperlink ref="D14" location="Sheet1!A1" tooltip="Blackfly S USB3, Model: BFS-U3-16S2M-CS: 1.6 MP, 226 FPS, Sony IMX273, Mono" display="Cameras" xr:uid="{CC6EC83C-1F17-4D34-AA93-8105ADE1523D}"/>
+    <hyperlink ref="I14" r:id="rId9" xr:uid="{17546202-A502-41C6-B5F6-A8C67ACE039B}"/>
+    <hyperlink ref="I15" r:id="rId10" xr:uid="{BF32C4DA-88AA-4D56-9998-9138E0323A75}"/>
+    <hyperlink ref="D16" location="Sheet1!A1" tooltip="10 Port USB 3.0 USB A Hub, Terminal Connector Powered, 198 x 56 x 31mm" display="USB Hub" xr:uid="{3E38E64E-AF36-49C6-9C1B-393D1F44DF92}"/>
+    <hyperlink ref="I16" r:id="rId11" xr:uid="{BEC4C95D-5E8C-4A14-95E7-E7F57CED3303}"/>
+    <hyperlink ref="D17" location="Sheet1!A1" tooltip="RM Series™ RM850 — 850 Watt 80 PLUS® Gold Certified Fully Modular PSU (UK)" display="Modular PSU" xr:uid="{D925E3AE-B9FF-4EE1-A15D-6916EAE0CBAA}"/>
+    <hyperlink ref="I17" r:id="rId12" xr:uid="{58E1E7C3-FEB2-4A8D-B8AB-3C1463280E74}"/>
+    <hyperlink ref="D18" location="Sheet1!A1" tooltip="InfraRed 850nm | 940nm IR LED Light Strip, Double Row 240LEDs 19.2W Per Meter" display="IR LED Strips" xr:uid="{1148CDC9-7772-46EF-B3BA-438A437BD3C6}"/>
+    <hyperlink ref="I18" r:id="rId13" xr:uid="{59E8DB28-1403-4F93-BFFF-C30D225D033B}"/>
+    <hyperlink ref="D19" location="Sheet1!A1" tooltip="12V Output, 150W Output, 12.5A Output, Constant Voltage Dimmable" display="LED driver" xr:uid="{982FB581-FBC4-40DC-A622-232C1998A35F}"/>
+    <hyperlink ref="D20" location="Sheet1!A1" tooltip="Wide Box LED Profile 1m" display="LED profile" xr:uid="{EA8DFA94-1385-467B-B992-D100F3F37F00}"/>
+    <hyperlink ref="I20" r:id="rId14" xr:uid="{37C0CCD0-F695-4EA6-BEC4-B015F38C1052}"/>
+    <hyperlink ref="D21" location="Sheet1!A1" tooltip="Tripod Adapter for 39 mm Blackfly S Models" display="Tripod adapter" xr:uid="{D737E412-BA2A-4869-AA59-3DEDED58E411}"/>
+    <hyperlink ref="I21" r:id="rId15" xr:uid="{D57C0736-7E18-4611-81D3-86E7D19574B8}"/>
+    <hyperlink ref="D22" location="Sheet1!A1" tooltip="6 pins, 4.5m GPIO Cable, Hirose HR10 Circular Connector" display="GPIO cables" xr:uid="{4087A21A-85D3-462F-A5CE-F9FCE12500F7}"/>
+    <hyperlink ref="I22" r:id="rId16" xr:uid="{A1D8F568-5E4C-4437-98D0-34825DC07574}"/>
+    <hyperlink ref="D23" location="Sheet1!A1" tooltip=" USB 3.1, 3m, Type-A to Micro-B (Locking) Cable" display="USB locking cables" xr:uid="{56067C20-0058-437E-ACE1-92951B967934}"/>
+    <hyperlink ref="I23" r:id="rId17" xr:uid="{95CCC6EE-F14B-4129-A956-27E3C5E3FD7B}"/>
+    <hyperlink ref="D24" location="Sheet1!A1" tooltip="Adapter with External 1/4&quot;-20 Threads and External M6 x 1.0 Threads " display="Adapter" xr:uid="{1F8D9ECE-0F96-4B08-AE81-DFE02F76B372}"/>
+    <hyperlink ref="I24" r:id="rId18" display="Adapter" xr:uid="{D2EC5103-0A78-47C6-8D60-0268C2FB558C}"/>
+    <hyperlink ref="D25" location="Sheet1!A1" tooltip="Ultramic USB Ultrasound Microphone, 192kHz" display="Microphone" xr:uid="{1D4366F7-131F-42DB-8089-8381866CAE50}"/>
+    <hyperlink ref="I25" r:id="rId19" xr:uid="{41FBE172-DF7B-4303-95E1-C0B9A6F73FC3}"/>
+    <hyperlink ref="D26" location="Sheet1!A1" tooltip="CS to C Mount 5mm Spacer Adapter" display="C-mount adapter " xr:uid="{8397EB6E-559C-4F75-B7AF-B3364B091E70}"/>
+    <hyperlink ref="I26" r:id="rId20" xr:uid="{A55D519C-4478-4417-8043-F5931475B424}"/>
+    <hyperlink ref="D28" location="Sheet1!A1" tooltip="Acc Silicones AS1803 Thermal Adhesive, 310 ml" display="Thermal sealant" xr:uid="{D3140863-352F-4122-8654-3CA12FB9ECE1}"/>
+    <hyperlink ref="I28" r:id="rId21" xr:uid="{B767B0DC-9320-4958-A7F0-66320CBA20C4}"/>
+    <hyperlink ref="D30" location="Sheet1!A1" tooltip="Cable Bracket, 8mm GrooveSlot 40 mm, 45 mm, 50 mm, 60 mm, 80 mm, 90 mm, PA 27mm Internal Width 27mm" display="Cable Bracket" xr:uid="{2EF80D69-8457-47A4-8464-0D838938E88C}"/>
+    <hyperlink ref="I30" r:id="rId22" xr:uid="{5821677E-D7F0-4909-B545-3581EE88CA41}"/>
+    <hyperlink ref="D31" location="Sheet1!A1" tooltip="Ø12.7 mm Optical Post, SS, M4 Setscrew, M6 Tap, L = 50 mm, 5 Pack " display="Optical post" xr:uid="{8643A823-B273-4C72-A8FF-F6F759EBE54B}"/>
+    <hyperlink ref="I31" r:id="rId23" xr:uid="{8BE81AD2-7F67-4EC6-AAB0-07D20689B8DA}"/>
+    <hyperlink ref="D32" location="Sheet1!A1" tooltip="Ø12.7 mm Post Holder, Spring-Loaded Hex-Locking Thumbscrew, L=50 mm, 5 Pack" display="Post holder" xr:uid="{33326D07-3EEA-4BE6-9DC2-F302BB1A10F4}"/>
+    <hyperlink ref="I32" r:id="rId24" location="ad-image-0" xr:uid="{1CC549FB-EF17-4027-8119-7D7954F94A93}"/>
+    <hyperlink ref="D29" location="Sheet1!A1" tooltip="Rotating Clamp for Ø1/2&quot; Posts, 360° Continuously Adjustable, 5 mm Hex, 5 Pack " display="Rotating Clamp" xr:uid="{341E5250-0053-45AE-A387-432A8FDA30CE}"/>
+    <hyperlink ref="I29" r:id="rId25" xr:uid="{1DEC1AD4-9DC2-44AA-A09B-1C221286AB41}"/>
+    <hyperlink ref="D27" location="Sheet1!A1" tooltip="NIR Bandpass Filter – 850nm FWHM 100nm, 14 x 14 mm" display="IR Filter" xr:uid="{5571D44C-4AAA-4AC7-84FF-73B2C9FCC59F}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{5B7A0DE2-A98E-45C9-818C-2A631B1C3874}"/>
+    <hyperlink ref="I11" r:id="rId27" xr:uid="{4A995C1B-6D4C-49DB-A180-E4557A591821}"/>
+    <hyperlink ref="I19" r:id="rId28" xr:uid="{997751E8-86E8-44C5-BD65-FDC48383E7D3}"/>
+    <hyperlink ref="I41" r:id="rId29" xr:uid="{474C36FA-2229-4E36-8F8A-08395698EA4A}"/>
+    <hyperlink ref="I40" r:id="rId30" xr:uid="{88458627-11F0-4264-A183-D3C565123B72}"/>
+    <hyperlink ref="J41" r:id="rId31" display="Vero PureWhite (RGD837) " xr:uid="{6E15CAEA-1234-433E-9FE9-50EEFF7B6392}"/>
+    <hyperlink ref="D6" location="Arena!A1" tooltip="RS PRO Plain Stainless Steel Hex Socket Countersunk Screw, ISO 10642, M6 x 12mm" display="Countersunk screw M6 12mm" xr:uid="{ED3C8BF0-0F77-4744-8D6B-5B99450FA2D1}"/>
+    <hyperlink ref="I6" r:id="rId32" xr:uid="{144B083F-941B-4A4B-98FF-2EBEFE163ADD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
-  <legacyDrawing r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <drawing r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>